--- a/Data/EC/NIT-9015243990.xlsx
+++ b/Data/EC/NIT-9015243990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C7C38E-68F1-4E6D-88A0-B4A252519A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A12E39-D100-476D-A417-B40C7C2F35B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51840B98-64B0-4069-9181-64B7E6EA0BAD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F45854EF-80AB-4917-AF02-93589C6D514B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,34 +65,139 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45484398</t>
+  </si>
+  <si>
+    <t>DENIS BLANCO BARRIOS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>45510883</t>
+  </si>
+  <si>
+    <t>DELVIS DEL ROSARIO PIMIENTA ACOSTA</t>
+  </si>
+  <si>
+    <t>45513706</t>
+  </si>
+  <si>
+    <t>ELISA MARIA LOPEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>45715708</t>
+  </si>
+  <si>
+    <t>YISELA CHALA BEDOYA</t>
+  </si>
+  <si>
+    <t>73156939</t>
+  </si>
+  <si>
+    <t>FRANCISCO CAMARGO ACUÑA</t>
+  </si>
+  <si>
+    <t>1143324104</t>
+  </si>
+  <si>
+    <t>JENNIFER ESTER NAVAS MORENO</t>
+  </si>
+  <si>
+    <t>45541412</t>
+  </si>
+  <si>
+    <t>CARLA ELOANA SILVA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>45559597</t>
+  </si>
+  <si>
+    <t>NAIRUBIS EREZ NOVOA</t>
+  </si>
+  <si>
+    <t>1143358921</t>
+  </si>
+  <si>
+    <t>CRISTIAN ACUÑA GOMEZ</t>
+  </si>
+  <si>
+    <t>33212254</t>
+  </si>
+  <si>
+    <t>ELOINA ECHAVEZ FLOREZ</t>
+  </si>
+  <si>
+    <t>1143366429</t>
+  </si>
+  <si>
+    <t>HENGLYS MARGARITA PUERTA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>33103179</t>
+  </si>
+  <si>
+    <t>DELLANIRA BELLO DIAZ</t>
+  </si>
+  <si>
+    <t>73199476</t>
+  </si>
+  <si>
+    <t>ALEXANDER TORRES HERRERA</t>
+  </si>
+  <si>
+    <t>22808467</t>
+  </si>
+  <si>
+    <t>LISBETH GARCIA PEREZ</t>
+  </si>
+  <si>
+    <t>45497547</t>
+  </si>
+  <si>
+    <t>ROSA DERLIS MONTERO GARCIA</t>
+  </si>
+  <si>
+    <t>1047437961</t>
+  </si>
+  <si>
+    <t>CRISTINA PACCINI PARRA</t>
+  </si>
+  <si>
+    <t>45765457</t>
+  </si>
+  <si>
+    <t>ANA ISABEL MATOS RENGIFO</t>
+  </si>
+  <si>
+    <t>1047466373</t>
+  </si>
+  <si>
+    <t>GREGORIO JOSE TORRES HERRERA</t>
+  </si>
+  <si>
+    <t>30669909</t>
+  </si>
+  <si>
+    <t>VANESSA PAOLA DIAZ SAJONERO</t>
+  </si>
+  <si>
     <t>1047407350</t>
   </si>
   <si>
     <t>DINACH PEREZ PADILLA</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1143324104</t>
-  </si>
-  <si>
-    <t>JENNIFER ESTER NAVAS MORENO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>30669909</t>
-  </si>
-  <si>
-    <t>VANESSA PAOLA DIAZ SAJONERO</t>
-  </si>
-  <si>
-    <t>1047437961</t>
-  </si>
-  <si>
-    <t>CRISTINA PACCINI PARRA</t>
+    <t>1047403419</t>
+  </si>
+  <si>
+    <t>NOEMI ESTHER THERAN ARRIETA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887D1EE0-BC9F-FF3E-173D-DE367FE24919}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FAB73C4-3BBA-94A2-F623-61F1471F170B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464C136-45EF-4BF1-88C2-37F98B1A8DE9}">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D36AF27-29BD-4786-A926-AD8CA96DDB95}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -869,7 +974,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -882,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -959,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>612940</v>
+        <v>4499940</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,17 +1080,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1012,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1035,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>128000</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1423000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1049,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>140000</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>3500000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1072,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>160000</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>4000000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1095,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1114,56 +1219,1390 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="24">
+      <c r="D20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="18">
+        <v>140000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="18">
+        <v>140000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="18">
+        <v>140000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
+        <v>104000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>2600000</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="18">
+        <v>104000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>2600000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="18">
+        <v>104000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>2600000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G70" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G71" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G72" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="18">
         <v>128000</v>
       </c>
-      <c r="G20" s="24">
-        <v>1423000</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="G73" s="18">
+        <v>3200000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="18">
+        <v>128000</v>
+      </c>
+      <c r="G74" s="18">
+        <v>3200000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="18">
+        <v>128000</v>
+      </c>
+      <c r="G75" s="18">
+        <v>3200000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G78" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9015243990.xlsx
+++ b/Data/EC/NIT-9015243990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A12E39-D100-476D-A417-B40C7C2F35B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23716E04-06A8-4980-ADD5-675CB099593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F45854EF-80AB-4917-AF02-93589C6D514B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{846160BB-F8DA-4187-BB62-05AD49F056B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,25 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45484398</t>
-  </si>
-  <si>
-    <t>DENIS BLANCO BARRIOS</t>
+    <t>45715708</t>
+  </si>
+  <si>
+    <t>YISELA CHALA BEDOYA</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
+    <t>1143358921</t>
+  </si>
+  <si>
+    <t>CRISTIAN ACUÑA GOMEZ</t>
+  </si>
+  <si>
+    <t>1047403419</t>
+  </si>
+  <si>
+    <t>NOEMI ESTHER THERAN ARRIETA</t>
   </si>
   <si>
     <t>45510883</t>
@@ -86,24 +92,15 @@
     <t>DELVIS DEL ROSARIO PIMIENTA ACOSTA</t>
   </si>
   <si>
+    <t>2508</t>
+  </si>
+  <si>
     <t>45513706</t>
   </si>
   <si>
     <t>ELISA MARIA LOPEZ GONZALEZ</t>
   </si>
   <si>
-    <t>45715708</t>
-  </si>
-  <si>
-    <t>YISELA CHALA BEDOYA</t>
-  </si>
-  <si>
-    <t>73156939</t>
-  </si>
-  <si>
-    <t>FRANCISCO CAMARGO ACUÑA</t>
-  </si>
-  <si>
     <t>1143324104</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
     <t>NAIRUBIS EREZ NOVOA</t>
   </si>
   <si>
-    <t>1143358921</t>
-  </si>
-  <si>
-    <t>CRISTIAN ACUÑA GOMEZ</t>
-  </si>
-  <si>
     <t>33212254</t>
   </si>
   <si>
@@ -192,12 +183,6 @@
   </si>
   <si>
     <t>DINACH PEREZ PADILLA</t>
-  </si>
-  <si>
-    <t>1047403419</t>
-  </si>
-  <si>
-    <t>NOEMI ESTHER THERAN ARRIETA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -296,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FAB73C4-3BBA-94A2-F623-61F1471F170B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6BE6A9-488C-8F41-9C69-52D07F96A99B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D36AF27-29BD-4786-A926-AD8CA96DDB95}">
-  <dimension ref="B2:J84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CC6C4C-F670-4590-80C2-31C9C174378F}">
+  <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +972,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1017,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1049,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4499940</v>
+        <v>1500920</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1065,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1154,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>104000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>2600000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1200,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1223,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1246,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1269,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>140000</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>3500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1315,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1338,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>56940</v>
+        <v>104000</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>2600000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1384,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1407,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1430,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F29" s="18">
         <v>56940</v>
@@ -1453,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
         <v>56940</v>
@@ -1476,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18">
-        <v>140000</v>
+        <v>56940</v>
       </c>
       <c r="G31" s="18">
-        <v>3500000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1499,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18">
-        <v>140000</v>
+        <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>3500000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1522,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F33" s="18">
-        <v>140000</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
-        <v>3500000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1545,13 +1530,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
@@ -1568,13 +1553,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1591,1018 +1576,75 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>128000</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>3200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="18">
-        <v>104000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>2600000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="18">
-        <v>104000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>2600000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="B37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="18">
-        <v>104000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>2600000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="B42" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="18">
-        <v>128000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>3200000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="18">
-        <v>128000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>3200000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="18">
-        <v>128000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>3200000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G78" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="H83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="B43" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
